--- a/1p.xlsx
+++ b/1p.xlsx
@@ -1337,7 +1337,7 @@
     <row r="2" customFormat="1" s="18">
       <c r="A2" s="24" t="inlineStr">
         <is>
-          <t xml:space="preserve">预录入编号:                               海关编号:         </t>
+          <t>预录入编号:                               海关编号:</t>
         </is>
       </c>
       <c r="N2" s="18" t="inlineStr">
@@ -1360,15 +1360,13 @@
       <c r="D3" s="57" t="n"/>
       <c r="E3" s="58" t="inlineStr">
         <is>
-          <t xml:space="preserve">出境关别
-</t>
+          <t>出境关别</t>
         </is>
       </c>
       <c r="F3" s="57" t="n"/>
       <c r="G3" s="55" t="inlineStr">
         <is>
-          <t xml:space="preserve">出口日期
-</t>
+          <t>出口日期</t>
         </is>
       </c>
       <c r="H3" s="52" t="n"/>
@@ -1393,7 +1391,7 @@
       <c r="A4" s="62" t="inlineStr">
         <is>
           <t>境外收货人
-UNICAIR(HOLDINGS) LIMITED</t>
+jason</t>
         </is>
       </c>
       <c r="B4" s="39" t="n"/>
@@ -1401,8 +1399,7 @@
       <c r="D4" s="39" t="n"/>
       <c r="E4" s="38" t="inlineStr">
         <is>
-          <t xml:space="preserve">运输方式
-                                               </t>
+          <t>运输方式</t>
         </is>
       </c>
       <c r="F4" s="39" t="n"/>
@@ -1410,16 +1407,14 @@
       <c r="H4" s="40" t="n"/>
       <c r="I4" s="38" t="inlineStr">
         <is>
-          <t xml:space="preserve">运输工具名称及航次号
-    </t>
+          <t>运输工具名称及航次号</t>
         </is>
       </c>
       <c r="J4" s="39" t="n"/>
       <c r="K4" s="40" t="n"/>
       <c r="L4" s="46" t="inlineStr">
         <is>
-          <t xml:space="preserve">提运单号
-                                </t>
+          <t>提运单号</t>
         </is>
       </c>
       <c r="M4" s="39" t="n"/>
@@ -1468,7 +1463,7 @@
       <c r="A6" s="48" t="inlineStr">
         <is>
           <t>合同协议号
-CXCI2025012201</t>
+9999</t>
         </is>
       </c>
       <c r="B6" s="39" t="n"/>
@@ -1490,8 +1485,7 @@
       <c r="H6" s="40" t="n"/>
       <c r="I6" s="38" t="inlineStr">
         <is>
-          <t xml:space="preserve">指运港
-</t>
+          <t>指运港</t>
         </is>
       </c>
       <c r="J6" s="39" t="n"/>
@@ -1499,8 +1493,7 @@
       <c r="L6" s="40" t="n"/>
       <c r="M6" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">离境口岸 
-</t>
+          <t>离境口岸</t>
         </is>
       </c>
       <c r="N6" s="39" t="n"/>
@@ -1510,8 +1503,7 @@
     <row r="7" ht="32.5" customFormat="1" customHeight="1" s="18">
       <c r="A7" s="35" t="inlineStr">
         <is>
-          <t xml:space="preserve">包装种类
-</t>
+          <t>包装种类</t>
         </is>
       </c>
       <c r="B7" s="36" t="n"/>
@@ -1540,8 +1532,8 @@
       <c r="J7" s="37" t="n"/>
       <c r="K7" s="54" t="inlineStr">
         <is>
-          <t>成交方式
-CIF</t>
+          <t xml:space="preserve">成交方式
+</t>
         </is>
       </c>
       <c r="L7" s="54" t="inlineStr">
@@ -1611,8 +1603,7 @@
     <row r="10" ht="60" customFormat="1" customHeight="1" s="18">
       <c r="A10" s="35" t="inlineStr">
         <is>
-          <t xml:space="preserve">标记唛码及备注                  
-</t>
+          <t>标记唛码及备注</t>
         </is>
       </c>
       <c r="B10" s="36" t="n"/>
